--- a/test_files/Code_list_with_30_Codes_valid.xlsx
+++ b/test_files/Code_list_with_30_Codes_valid.xlsx
@@ -17,51 +17,51 @@
     <t>CODEVALUE</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>HIERARCHYLEVEL</t>
+  </si>
+  <si>
+    <t>PREFLABEL_FI</t>
+  </si>
+  <si>
+    <t>PREFLABEL_SV</t>
+  </si>
+  <si>
+    <t>PREFLABEL_EN</t>
+  </si>
+  <si>
+    <t>DESCRIPTION_FI</t>
+  </si>
+  <si>
+    <t>DESCRIPTION_SV</t>
+  </si>
+  <si>
+    <t>DESCRIPTION_EN</t>
+  </si>
+  <si>
+    <t>SHORTNAME</t>
+  </si>
+  <si>
+    <t>STARTDATE</t>
+  </si>
+  <si>
+    <t>ENDDATE</t>
+  </si>
+  <si>
     <t>ORGANIZATION</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>HIERARCHYLEVEL</t>
-  </si>
-  <si>
-    <t>PREFLABEL_FI</t>
-  </si>
-  <si>
-    <t>PREFLABEL_SV</t>
-  </si>
-  <si>
-    <t>PREFLABEL_EN</t>
-  </si>
-  <si>
-    <t>DESCRIPTION_FI</t>
-  </si>
-  <si>
-    <t>DESCRIPTION_SV</t>
-  </si>
-  <si>
-    <t>DESCRIPTION_EN</t>
-  </si>
-  <si>
-    <t>SHORTNAME</t>
-  </si>
-  <si>
-    <t>STARTDATE</t>
-  </si>
-  <si>
-    <t>ENDDATE</t>
+    <t>INFORMATIONDOMAIN</t>
   </si>
   <si>
     <t>testcode28</t>
   </si>
   <si>
-    <t>CLASSIFICATION</t>
-  </si>
-  <si>
     <t>VERSION</t>
   </si>
   <si>
@@ -149,6 +149,9 @@
     <t>Testcode 35</t>
   </si>
   <si>
+    <t>Koodisto700</t>
+  </si>
+  <si>
     <t>testcode36</t>
   </si>
   <si>
@@ -177,9 +180,6 @@
   </si>
   <si>
     <t>Testcode 40</t>
-  </si>
-  <si>
-    <t>Koodisto700</t>
   </si>
   <si>
     <t>testcode41</t>
@@ -330,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -349,14 +349,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,26 +391,26 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>17</v>
@@ -425,13 +422,13 @@
         <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>20</v>
@@ -443,10 +440,10 @@
         <v>22</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>23</v>
@@ -462,10 +459,10 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>700.0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -474,11 +471,11 @@
       <c r="D2" s="5">
         <v>1.0</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>55</v>
+      <c r="E2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -491,10 +488,10 @@
       <c r="O2" s="1"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <v>43101.0</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="7">
         <v>43466.0</v>
       </c>
       <c r="T2" s="3"/>
@@ -1523,48 +1520,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="3"/>
@@ -1585,7 +1582,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="1"/>
@@ -1605,7 +1602,7 @@
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1616,7 +1613,7 @@
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1627,7 +1624,7 @@
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1638,7 +1635,7 @@
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1649,7 +1646,7 @@
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1660,7 +1657,7 @@
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1669,64 +1666,64 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1737,7 +1734,7 @@
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1748,7 +1745,7 @@
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1759,7 +1756,7 @@
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1770,7 +1767,7 @@
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1781,7 +1778,7 @@
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1792,7 +1789,7 @@
       <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1803,7 +1800,7 @@
       <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -1814,7 +1811,7 @@
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -1825,7 +1822,7 @@
       <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -1836,7 +1833,7 @@
       <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1847,7 +1844,7 @@
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -1858,7 +1855,7 @@
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -1869,7 +1866,7 @@
       <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -1880,7 +1877,7 @@
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -1891,7 +1888,7 @@
       <c r="A30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -1902,7 +1899,7 @@
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="1" t="s">
